--- a/Document/몬스터(사우론(가제))_강일구.xlsx
+++ b/Document/몬스터(사우론(가제))_강일구.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\Gorilla-box\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="시스템 룰 " sheetId="1" r:id="rId1"/>
-    <sheet name="흐름도 " sheetId="2" r:id="rId2"/>
+    <sheet name="개요" sheetId="3" r:id="rId1"/>
+    <sheet name="시스템 룰 " sheetId="1" r:id="rId2"/>
+    <sheet name="흐름도 " sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t xml:space="preserve">1. 시스템 개요 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -244,6 +245,38 @@
   </si>
   <si>
     <t xml:space="preserve"> - 오른쪽 감지 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">몬스터 기본 흐름도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">작성일자 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">작성자 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비고 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">강일구 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초안작성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -339,7 +372,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -378,6 +411,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -479,6 +518,55 @@
         <a:xfrm>
           <a:off x="645300" y="13265925"/>
           <a:ext cx="3426249" cy="1530229"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>341463</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>21086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304925" y="819150"/>
+          <a:ext cx="3837138" cy="6745736"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -753,9 +841,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
@@ -810,26 +968,26 @@
       <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
       <c r="H23" s="6" t="s">
         <v>24</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
       <c r="Q23" s="6" t="s">
         <v>24</v>
       </c>
@@ -838,24 +996,24 @@
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
       <c r="H24" s="5"/>
       <c r="K24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
       <c r="Q24" s="5" t="s">
         <v>39</v>
       </c>
@@ -864,26 +1022,26 @@
       <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
       <c r="H25" s="5" t="s">
         <v>47</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
       <c r="Q25" s="5" t="s">
         <v>40</v>
       </c>
@@ -892,24 +1050,24 @@
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
       <c r="H26" s="5"/>
       <c r="K26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
       <c r="Q26" s="5" t="s">
         <v>41</v>
       </c>
@@ -923,13 +1081,13 @@
       <c r="B29" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
       <c r="H29" s="6" t="s">
         <v>10</v>
       </c>
@@ -938,13 +1096,13 @@
       <c r="B30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
       <c r="H30" s="3" t="s">
         <v>11</v>
       </c>
@@ -953,13 +1111,13 @@
       <c r="B31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
       <c r="H31" s="3" t="s">
         <v>12</v>
       </c>
@@ -968,13 +1126,13 @@
       <c r="B32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
       <c r="H32" s="3" t="s">
         <v>13</v>
       </c>
@@ -991,13 +1149,13 @@
       <c r="B35" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
       <c r="H35" s="6" t="s">
         <v>24</v>
       </c>
@@ -1006,13 +1164,13 @@
       <c r="B36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
       <c r="H36" s="5" t="s">
         <v>39</v>
       </c>
@@ -1021,13 +1179,13 @@
       <c r="B37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
       <c r="H37" s="5" t="s">
         <v>41</v>
       </c>
@@ -1121,15 +1279,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/몬스터(사우론(가제))_강일구.xlsx
+++ b/Document/몬스터(사우론(가제))_강일구.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t xml:space="preserve">1. 시스템 개요 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -216,10 +216,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>재윤님</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">감시 범위 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -277,6 +273,42 @@
   </si>
   <si>
     <t>초안작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">재윤님 의견 참조 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 추가 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 몬스터는 지정된 기본 상태에서 감지를 시작함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2. 시작 후 지정 된 시간()이 지나면 감지 방향을 전환함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 이때 방향이 바뀌는 것은 회전같은 애니매이션이 적용 되지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2 따라서 감지범위는 점등과 같이 바뀌게 됨 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3. 플레이어가 감지 범위 내에 들어올 경우 이펙트를 붉은 색으로 변경 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1 후에 플레이어 체력을 1 감소 시킴 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2 플레이어가 체력이 감소되면 체크포인트 지점으로 위치를 되돌림 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -372,7 +404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -411,6 +443,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -518,6 +553,138 @@
         <a:xfrm>
           <a:off x="645300" y="13265925"/>
           <a:ext cx="3426249" cy="1530229"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>521124</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>15754</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="16278225"/>
+          <a:ext cx="3426249" cy="1530229"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>477212</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>143836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>639187</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>207216</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4757859" y="16515630"/>
+          <a:ext cx="3422887" cy="1553762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>183573</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>154997</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>197244</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>145121</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10051473" y="15852197"/>
+          <a:ext cx="3852246" cy="2295174"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -855,27 +1022,27 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -911,16 +1078,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q62"/>
+  <dimension ref="B2:Q89"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29.25" customWidth="1"/>
-    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
     <col min="11" max="11" width="12.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.375" customWidth="1"/>
     <col min="17" max="17" width="14.375" bestFit="1" customWidth="1"/>
@@ -928,7 +1095,7 @@
   <sheetData>
     <row r="2" spans="2:2" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
@@ -968,26 +1135,26 @@
       <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
       <c r="H23" s="6" t="s">
         <v>24</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L23" s="14" t="s">
+      <c r="L23" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
       <c r="Q23" s="6" t="s">
         <v>24</v>
       </c>
@@ -996,24 +1163,24 @@
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
       <c r="H24" s="5"/>
       <c r="K24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L24" s="13" t="s">
+      <c r="L24" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
       <c r="Q24" s="5" t="s">
         <v>39</v>
       </c>
@@ -1022,26 +1189,26 @@
       <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="5" t="s">
-        <v>47</v>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L25" s="13" t="s">
+      <c r="L25" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
       <c r="Q25" s="5" t="s">
         <v>40</v>
       </c>
@@ -1050,24 +1217,24 @@
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
       <c r="H26" s="5"/>
       <c r="K26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L26" s="13" t="s">
+      <c r="L26" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
       <c r="Q26" s="5" t="s">
         <v>41</v>
       </c>
@@ -1081,13 +1248,13 @@
       <c r="B29" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
       <c r="H29" s="6" t="s">
         <v>10</v>
       </c>
@@ -1096,13 +1263,13 @@
       <c r="B30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
       <c r="H30" s="3" t="s">
         <v>11</v>
       </c>
@@ -1111,13 +1278,13 @@
       <c r="B31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
       <c r="H31" s="3" t="s">
         <v>12</v>
       </c>
@@ -1126,13 +1293,13 @@
       <c r="B32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
       <c r="H32" s="3" t="s">
         <v>13</v>
       </c>
@@ -1142,20 +1309,20 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
       <c r="H35" s="6" t="s">
         <v>24</v>
       </c>
@@ -1164,13 +1331,13 @@
       <c r="B36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
       <c r="H36" s="5" t="s">
         <v>39</v>
       </c>
@@ -1179,13 +1346,13 @@
       <c r="B37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
       <c r="H37" s="5" t="s">
         <v>41</v>
       </c>
@@ -1242,17 +1409,49 @@
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>64</v>
+      </c>
+      <c r="F87" t="s">
+        <v>65</v>
+      </c>
+      <c r="M87" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F88" t="s">
+        <v>66</v>
+      </c>
+      <c r="M88" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F89" t="s">
+        <v>67</v>
+      </c>
+      <c r="M89" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1275,7 +1474,8 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1283,7 +1483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -1291,7 +1491,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Document/몬스터(사우론(가제))_강일구.xlsx
+++ b/Document/몬스터(사우론(가제))_강일구.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t xml:space="preserve">1. 시스템 개요 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -88,227 +88,235 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">4. 사우론 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이동을 할 수 없다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 방향 전환 시기를 통해서 감시 방향을 전환한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 감시 시작 지점 값을 통해서 어느 방향에서 감시를 먼저 시작 할 것인지 선택한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 유저가 감시 범위안에 들어오면 체력을 감소 시키며 지정된 애니메이션을 출력한다. (거의 동시에 이루어진다)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 조작 데이터 구성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">방향 전환 애니메이션 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기본 모델링 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">감시 범위 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 그래픽 구성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 유저가 감시 범위 안에 들어올 시 이펙트를 초록색에서 빨간 색으로 변경시킨다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 기본적인 이펙트는 초록색으로 출력한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 체력이 감소된 유저는 체크포인트로 돌아간다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 체력이 0일 경우 게임오버 시킨다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">순찰 상태 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터 상태 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">추적 상태 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터와 충돌 할 시 감시 범위가 아니라더라도 체력을 감소시키고 체크포인트로 되돌린다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">발견 상태 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록색 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">주황색 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">빨간색 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">몬스터의 기본 상태 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 몬스터의 범위 안에 들어서 공격을 안받고 도망침</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">유저가 몬스터의 범위 안에 있음 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">몬스터의 외형 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">감시 방향이 전환되는 애니메이션 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">감시 범위 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보유 상태 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">유저가 몬스터의 공격 범위 안에 있음 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">몬스터_사우론(가명) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5. 감시 범위 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 왼쪽을 감지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 오른쪽 감지 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">몬스터 기본 흐름도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">작성일자 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">작성자 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비고 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">강일구 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초안작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">재윤님 의견 참조 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 몬스터는 지정된 기본 상태에서 감지를 시작함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2. 시작 후 지정 된 시간()이 지나면 감지 방향을 전환함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 이때 방향이 바뀌는 것은 회전같은 애니매이션이 적용 되지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2 따라서 감지범위는 점등과 같이 바뀌게 됨 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3. 플레이어가 감지 범위 내에 들어올 경우 이펙트를 붉은 색으로 변경 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1 후에 플레이어 체력을 1 감소 시킴 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2 플레이어가 체력이 감소되면 체크포인트 지점으로 위치를 되돌림 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 순서 추가 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">해당 몬스터에서는 추적 상태를 사용하지 않습니다 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>탐지 방향을 전환하는 시간(초단위)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>감시를 시자가는 방향 - 오른쪽 1, 왼쪽 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4. 사우론 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 이동을 할 수 없다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 방향 전환 시기를 통해서 감시 방향을 전환한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 감시 시작 지점 값을 통해서 어느 방향에서 감시를 먼저 시작 할 것인지 선택한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 유저가 감시 범위안에 들어오면 체력을 감소 시키며 지정된 애니메이션을 출력한다. (거의 동시에 이루어진다)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 조작 데이터 구성 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">방향 전환 애니메이션 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">기본 모델링 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">감시 범위 이펙트 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 그래픽 구성 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 유저가 감시 범위 안에 들어올 시 이펙트를 초록색에서 빨간 색으로 변경시킨다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 기본적인 이펙트는 초록색으로 출력한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 체력이 감소된 유저는 체크포인트로 돌아간다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 체력이 0일 경우 게임오버 시킨다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">순찰 상태 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 몬스터 상태 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">추적 상태 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 몬스터와 충돌 할 시 감시 범위가 아니라더라도 체력을 감소시키고 체크포인트로 되돌린다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">발견 상태 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초록색 이펙트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">주황색 이펙트 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">빨간색 이펙트 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">몬스터의 기본 상태 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저가 몬스터의 범위 안에 들어서 공격을 안받고 도망침</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">유저가 몬스터의 범위 안에 있음 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">몬스터의 외형 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">감시 방향이 전환되는 애니메이션 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">감시 범위 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보유 상태 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">유저가 몬스터의 공격 범위 안에 있음 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">몬스터_사우론(가명) </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">5. 감시 범위 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 왼쪽을 감지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 오른쪽 감지 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">몬스터 기본 흐름도 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">작성일자 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">작성자 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">비고 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.03.30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">강일구 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초안작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">재윤님 의견 참조 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 추가 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 몬스터는 지정된 기본 상태에서 감지를 시작함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2. 시작 후 지정 된 시간()이 지나면 감지 방향을 전환함 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1 이때 방향이 바뀌는 것은 회전같은 애니매이션이 적용 되지 않음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2 따라서 감지범위는 점등과 같이 바뀌게 됨 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3. 플레이어가 감지 범위 내에 들어올 경우 이펙트를 붉은 색으로 변경 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1 후에 플레이어 체력을 1 감소 시킴 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2 플레이어가 체력이 감소되면 체크포인트 지점으로 위치를 되돌림 </t>
+    <t>감시를 시작하는 방향 - 오른쪽 1, 왼쪽 2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -404,7 +412,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -443,6 +451,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -477,13 +488,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>502074</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>34804</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -521,13 +532,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>645300</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>83325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>471099</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>146704</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -565,13 +576,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>521124</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>15754</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -609,13 +620,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>477212</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>143836</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>639187</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>207216</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -651,16 +662,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>183573</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>154997</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2598</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>9065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>197244</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>145121</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>11771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -683,8 +694,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10051473" y="15852197"/>
-          <a:ext cx="3852246" cy="2295174"/>
+          <a:off x="10556298" y="17592215"/>
+          <a:ext cx="3521652" cy="2098206"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>605366</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="2219325"/>
+          <a:ext cx="6282266" cy="3533775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1022,27 +1077,27 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -1078,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q89"/>
+  <dimension ref="A2:Q96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1095,7 +1150,7 @@
   <sheetData>
     <row r="2" spans="2:2" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
@@ -1118,359 +1173,416 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="5"/>
+      <c r="K31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="5"/>
+      <c r="K33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B40" s="10"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B41" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B46" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B47" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K22" s="11" t="s">
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="5"/>
-      <c r="K24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="13" t="s">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B81" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B83" s="12">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="12">
+        <v>2</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B94" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="5"/>
-      <c r="K26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="10"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="2" t="s">
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F87" t="s">
-        <v>65</v>
-      </c>
-      <c r="M87" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F88" t="s">
-        <v>66</v>
-      </c>
-      <c r="M88" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F89" t="s">
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="M89" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="C42:G42"/>
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="C37:G37"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C33:G33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1491,7 +1603,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
